--- a/biology/Zoologie/Devade/Devade.xlsx
+++ b/biology/Zoologie/Devade/Devade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Devade est un genre d'araignées aranéomorphes de la famille des Dictynidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Devade est un genre d'araignées aranéomorphes de la famille des Dictynidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en écozone paléarctique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en écozone paléarctique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 27/01/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 27/01/2024) :
 Devade dubia Caporiacco, 1934
 Devade indistincta (O. Pickard-Cambridge, 1872)
 Devade kazakhstanica Esyunin &amp; Efimik, 2000
@@ -582,11 +598,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diotima[2] Simon, 1880 préoccupé par Diotima Reichenbach, 1854 est remplacé par Devade par Simon en 1885[3].
-Pseudauximus[4] et Strinatinella[5] ont été placés en synonymie par Lehtinen en 1967[6].
-Momius[7] a été placé en synonymie par Marusik en 1989[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diotima Simon, 1880 préoccupé par Diotima Reichenbach, 1854 est remplacé par Devade par Simon en 1885.
+Pseudauximus et Strinatinella ont été placés en synonymie par Lehtinen en 1967.
+Momius a été placé en synonymie par Marusik en 1989.
 </t>
         </is>
       </c>
@@ -615,7 +633,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1885 : « Arachnides nouveaux d'Algérie. » Bulletin de la Société Zoologique de France, vol. 9, p. 321-327 (texte intégral).
 Simon, 1880 : « Description de Diotima hirsutissima, capture d'Araignées d'Alexandrie. » Annales de la Société Entomologique de France, sér. 5, vol. 10, p. 54-56.</t>
